--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/23_Çankırı_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/23_Çankırı_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555FC94D-E3DD-44A6-8CF8-B74A2F54A810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9643E16-760D-4B1B-8C84-ED7BFFE791E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{94DB7169-8D85-4C7C-8B83-50297D1DD4F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{9837017A-5257-48CA-879F-3C916FD51F26}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{572DC7E6-6B90-41B5-99B0-A2081504CC68}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DE1309FD-9563-48B3-81B9-D458B3263CF5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0DAB39B3-1A69-43C5-85F4-EF81FD0B989F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{02F0D34E-0C1F-42D3-82D3-4211C3AE96B8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B80E840F-138C-4C1B-8A81-B641D4054794}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8398D417-FC0B-43E2-B497-8D8700429258}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4A9C8F92-87BE-40CC-B3CB-21D653E7463E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1D3772A0-FD95-452F-BF6C-5F8477970A97}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A7B88530-552B-444F-89F6-F166FE478F88}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B56A260B-5C47-4F8C-9140-A28DFAA415FF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4111DE28-581D-4B5B-914E-B76642C0D460}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C3168216-650D-462D-AC28-A3860FA339B4}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{3E54D455-A812-4CE3-9338-B6DFA3B13662}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{38474F7C-CBC5-4BBB-9BD7-C9228FB7F491}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9292899-31F0-4919-AC13-5A94F78ABB58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFA9634-85EA-4BC9-A999-7B53758EA070}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2548,18 +2548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68F4B79F-16E1-4468-A0CC-8BD70B90261A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF20266A-A580-41B8-B850-5069A4B481DE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99698B7A-6199-425C-9D37-1EBC09AB98D8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{798F7C0A-E146-4BE2-B12C-88E41E6BD800}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23CF3DBB-38B4-424F-8323-04682BB47BB6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50C67AC7-8D2F-4969-B48B-2246CEE21D70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DED7904-7765-491F-BCDD-EA4AC5C9DB3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B66B195-5D49-435A-B93C-8750CC68CC70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22EC55F2-C550-4C41-8E49-A621E40D1FD5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D18490A3-E93A-4920-B18D-B21AD0849069}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A460BC6F-C8C3-4B58-AD9C-5A5521177CD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83A8E346-88FD-4325-948F-076B44D17C20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F539A85F-BA32-483D-8056-5A0C41E0A1B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D232EBCF-E5B9-467D-B4A6-8798FA5D6C8E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{904165AA-3198-4922-BAE7-CB601898BD53}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC382F4F-945D-4E8E-94F2-597BC620A9BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABE216E9-D51A-44E2-BBB4-E470232B2914}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F4866A3-37EA-4E18-9C2C-D0BB1E4312AE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FD378A7-0B79-4EED-9F80-6DF201DBA1DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C0A8F11-C3CA-4CB3-8982-C96B9CECBF4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CDC0F0B-B734-459F-9101-6E24CE3076C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C28E3AC-F421-4C96-A5F9-B5890EC6F85E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55EBFD1A-1775-4002-8C9A-03D49EF4C955}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{445F4EC5-3AD8-45C8-B1D8-71AD13D24AF3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131FBBB1-29F9-46E4-9D89-01F99EAF8A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC44DC9E-7FBF-437D-84A5-92A6DE64CA8D}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3776,18 +3776,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{676FDA20-433F-4827-BCEA-9CB3E4F2702D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C08D5801-EB99-4DBC-95CA-BA416B8F8E85}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DAA6CBC1-921C-419F-B23D-EA0EBD1907DA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F7E8CE2A-0A04-4A6A-9BA3-4A798875A60D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DC1535C-9015-4E6E-8FA2-C1F19A3218D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B48F92B-DB26-4495-B959-EDC76BAD27E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9796EF2E-876A-4CB6-B921-16A8F55F52CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE678646-A664-464F-B36C-A1D11C5B412F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B9163DA-D5D0-49C7-A1E7-1E89AAA0DD62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDB71A04-402E-4325-B605-B9FA76A16552}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE637F9F-5A58-4995-B2D5-FF4FEBBE0C71}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{010C64CF-E0B9-48C6-A4F2-4206EB0DF193}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72E40BB7-3B9E-44B8-831D-245725952BFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F613965D-AFE0-4A8B-A650-83003EA49878}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B050935-B5F4-4E00-A37A-D18C58C1CEA3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08FB477F-E261-4238-BC3C-A408C47FD1DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AF5F2D7-DA00-44E8-BFFD-577E3F1E1CCC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F12C66A1-FE36-42FA-B0F5-28FDD9F289D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF5113A9-BC4B-4006-AEEF-215587B83CA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7895380-5C60-46C6-9972-20162BD79D5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9DEF1AF-03CA-45D3-A1CF-3674764677E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB1B1B9F-5EDB-4D6B-A22D-8F6085FC9177}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{156079E2-ADA5-4A82-994E-6E0A9DBDECF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{664B3068-2082-4E74-93A6-BF92DF73F613}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3800,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34997505-8D84-4DA6-B478-9677D705F985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1424A8FF-ACCE-4F3B-AFE7-851F1EE77B77}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4992,18 +4992,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A112FD13-319D-405C-B383-1FCF48A7D822}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A473EC0B-B67F-4825-85B3-8346350B0DC4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{17A06622-D5D5-4C65-A8C9-8D45AE65A9E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{525DD41E-9291-41FB-B850-BAADC3F0BE80}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7B7B08E-E799-4097-A997-7F3D0CA43730}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{319D80F1-B0A5-47A2-9341-E9DBE6B754F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B873362-4A89-47FB-B6DA-89237381F212}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A452952C-BDA2-4FF7-A466-7A36C05FF443}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{057EC6B2-F2A4-4F1C-9551-AFCF9C822E35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AD6AFF1-C0CD-448C-857D-CC1A9131AB9D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96C45966-F89F-4150-93EB-42C61664A27B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CBD8B671-575E-4028-A463-2E84EA3A8E96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF4D898D-707F-4454-935A-E4FF2DD8C5FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63AB62E7-D27E-4B90-B6F3-3B6F6670FA33}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{923DE9E5-279C-43D5-9EC8-5049FF43FBDB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C78277DB-111B-42B9-944F-8DEDA06F0D28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6DEDC41-A8CF-4E60-82A7-EC7032EBE994}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D69FD601-C0C4-4622-87EC-A1E230AF9D98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21ADCE8D-72D7-464A-B7BC-79064A142526}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA18EFE3-5AEE-4082-AAB7-0D95EB30AA21}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13C70C82-6939-47FF-84C9-FE240E42720C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4BE197C-1139-4AB4-8B12-57E31D7E0C1A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B56AE9F-9568-420D-ACAB-3B7B1ED0A6EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1E219DD-2718-4CBD-AAB9-2BFA384B067B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5016,7 +5016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DB79B5-2126-402F-A05C-1E4ABBD32EA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0037660C-543F-408B-ADC2-291A681A6EA6}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6198,18 +6198,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52507B10-CC50-409C-8D57-01746CABD98E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32483064-0AEA-47D2-91B2-2DC14A65106F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DA49B72-9ABE-401D-913D-3EA0958E51B4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9A292791-A137-4561-BC67-4BEEC1B754AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{208282DE-589E-4BBC-A9AF-256C36179783}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1ADD5E4-6527-4514-BF9D-814F2165794B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDCDE40F-06F8-46F4-98C6-3C71E8290925}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88FF5EA8-0C5D-4F81-9F98-A5D564A679CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{755D69DB-37F7-4E03-A980-5AE991F0BAE2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32289280-6804-4F9A-A1BF-957679A62692}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30ED34BF-F85C-4B01-B973-A0D514EEB175}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5843E040-7BBA-4623-8638-D8C324228014}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4FC74DB0-A0A0-4AD5-833E-F1BC71C47E6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC9F3391-2C91-4511-B885-C8FE9EBCD058}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36866511-1599-4B60-A6AF-C83E634BE9A6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A41C291A-343E-4B13-AA1E-4C9BD3249379}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B234FF1E-F779-4945-80B4-173C62E56761}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57220710-E7F1-4BDA-A652-B0391477D0E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58737AA2-B9B8-47D3-A3B8-8A7A0D4C4F2C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C730FD1F-F206-4999-A3A0-25E9BBCACC52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA0ED6CF-16FC-4C51-B0F1-F971F8F3B4B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC4F4FA5-6E56-4AC9-9117-4A488FECC92C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05668D23-10CB-4653-86CF-CB43A98E43CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F6BF8C3-F6F9-49AC-A089-9AD9B7A61AC2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6222,7 +6222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F45D1AD-FE59-4C9B-ACED-5E4A06D04F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AF48AE-C6A1-448F-87D2-318318D2E95F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7447,18 +7447,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6185171-9EF1-443A-AFFC-4E9F04C3B00B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{745300E7-2B38-45BC-9034-A83B523F022C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{21C6CAD2-4575-473C-A169-7C75DE66A8BE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00FD2D28-A0AF-45CD-87DB-BB3B3FBB4C97}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08305AFA-0C24-4296-802C-1B89332BC0C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3112AB9E-B27F-488C-A486-162130BA1E75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C2C3091-1A85-4226-B2A0-EAFA8271DFB7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F842C84-20CC-4590-9860-0848AED701D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82C7CEFE-DB5B-4F6C-B205-DBE55D239BC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD2694B8-F6BF-4910-B362-E6E21644D8FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB9D2DAD-7203-4367-AB09-4CD1206D838D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10589C3C-840C-4875-BC88-2A7E295ABB22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4D8A142-B200-45F5-890B-8A4DEFB4F443}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45C1393F-99B8-4E62-B6D7-3DF2BD963C80}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01256440-0079-4FB4-9709-3D644F0276A4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2AC78291-B40D-4948-81FA-CEB66843D02E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27B1C80D-FB02-47DF-9D3A-D023992C65E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1365A12C-58B0-4D12-8EED-66EE436996B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{592C0A99-8902-410B-829B-6E96FDDC78C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{936D3B88-B2B5-41E8-AD6B-FD1AE8A4A0CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C10E2F1-2B77-44BD-80F5-76D251073485}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DACE537-A540-40C6-B811-81E2466BF1CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A73EAB01-4066-408C-8CEF-8EC03207892E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{455BE25C-851F-4722-ADF6-6A9D0769A7F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7471,7 +7471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AD2929-E3B0-468A-90A6-A2B93382C22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FE25C6-E887-4126-8507-D16956BE2374}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8698,18 +8698,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99F2538A-9EEB-4AED-96C7-5CA961BF97F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F6C15B4-30E8-4312-BC05-0F945D04D6AB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2363070F-8458-41E3-B904-243F5576ACB5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41550C84-8631-4799-9A11-A3F7F2BD930A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DAD1CA4-3BE1-4CFD-A418-C29F08097E75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6B39D15-B7E7-474B-BCE3-6AF676FAF1A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B8E98E4-5EC1-465C-A08E-1C22F67B4426}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4719F335-9376-4694-B42B-40D2DAEFE057}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A42303EF-5D68-43C8-8308-EB88A1D9D906}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7BD0AFA-CB36-41B8-9F89-BDFA19197963}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5053511E-42BA-438C-ABD3-2D74BF113E11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7E16F29-72EC-42C0-B525-1E40E1F6A0AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE038FBB-9B51-44EE-849E-E12E3BE5567A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7541BA9-0DF9-4247-B571-3A63D02BBC23}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{341F772B-7258-40D8-B33C-5393812D14D1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7C265142-4821-4A30-B1F3-BB294EECD2A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D56E98E1-9666-4374-85A9-834392CD0A4F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF6BBF4E-76B1-4797-93F6-C047A8EDD971}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65E2E992-C84C-4C2A-944F-ADB901D7C452}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8239A7B5-27AE-4E38-9C3C-74C87870DDE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7B2A16D-AB35-4CAD-8754-0AD57793AC1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B322461-00FA-4413-A390-F392DA272F74}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94462982-BB76-4856-A86B-735CFF4F880C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF126E6E-0507-453F-90FC-2A8EE601EA2C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8722,7 +8722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62033F68-FF66-4903-8ED6-5234C59C0734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DD7CCE-8F24-4EB4-AF63-527F7D0BAE5E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9945,18 +9945,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6791AA41-4502-47E6-B863-4AA69C23163E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCCE21DF-E7AB-4194-AD8D-4DCEB1CBC2F9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{055358E3-835A-4635-B2FB-C8E1C28E189D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E9F4778-3C62-4B3B-A090-B97BF45DB508}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A83B2646-3766-4FEB-8EB7-8F7AC0135B36}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{38684FAD-12A0-4DAC-A628-3722131D7C5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F67888C-6D97-449A-8CA2-31EC8A383649}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B6E9CA5-6CF3-4F57-B807-FFC27D0CA9C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D72EBE78-87B9-4592-B93A-7A2B5BDB7A07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9CA08967-9AF7-44D5-8E5C-D62ACE59A9C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC586E18-FF7C-4CB0-A97D-7A576FB03469}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{91BF8301-BA28-4731-A1DE-D3C4886E5D11}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BD7515C-754D-40E2-8591-89230EC10449}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A01B92C-E111-4474-9C77-22829BBA34A7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{678375BD-D662-4C46-9775-6F642F7CB4E0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00B4DA0C-61D8-4FD5-B134-3908417536A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A3C9107-EBC1-4A96-BC78-62913D725D2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E06370A9-25E2-493D-9473-B5F1A301FFB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC85D7A3-CC8C-4241-A69E-4BB28D409100}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94DD222E-0F86-446C-82BB-A24087D04455}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B6AF8E6-4C05-4813-BF46-25980A432B9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B08B47DA-9F62-4233-B515-687FC4D91923}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{746E3720-882D-4580-97B5-CBAF1D2C3242}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12479F81-21EE-4B5D-AF3C-809BFD41CC33}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9969,7 +9969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AE94DA-A865-4C4B-A746-C81D31F511A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC8EDBA-996C-473B-947C-EF51E394D3F9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11188,18 +11188,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF11292D-86BE-48A3-BDF8-B834763D2A01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58137EB5-373F-4FAD-8E29-EF95C071DE3D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64E129EB-1CA5-4235-9126-00B4D7B2D618}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67FBACDC-B6B8-4C03-89A1-DE1BE43A1CA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBC41B68-A78D-41B5-86CB-24CF9877C14A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C04D3237-D2F2-4CAB-8972-C60F92F8960F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BBB9C1E-C59C-4E6B-80E9-4837D10B0EE8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59C3CBEB-17BB-4989-A397-B5CE3573635D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24991D6B-5C4E-4988-8C40-36DC53030F55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{355CDC04-1F85-435D-BCBC-8075AF0CFB90}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA77C2C8-9AF6-416B-A483-9B7E9107DCB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0FE773C-9178-4968-8168-6105AAF108D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17A3E18B-9BDB-4B8E-A9B0-680C3C2245A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24CF2CB4-A52C-49A2-81CD-A1CB6E0E5272}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9881EEA5-74E1-47FB-8B65-5C1A88FE2671}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A97D9FC6-0DAB-4738-BBC0-6B337695B1F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{065EE8A6-2ACE-4A03-A8B9-2147F1C4FDD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC1A2330-5B42-40B0-9FB0-3DFD4ADCE3D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9120CC35-7255-4F9E-BD24-D8336C026349}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D28AE92A-E977-4A51-AA57-5BFED8A8E4C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7909A845-7F98-45CE-A854-6052505F05F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DCE88AA-7773-4314-B553-FD4915D93286}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1566DDFA-07D5-4F50-AF54-17B380D6C37B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1ED11CE4-54B0-455D-A875-48CBA5C98C67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11212,7 +11212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ADF27C-4B17-468E-B1E1-1E24E8E2260A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FDB270-4779-4B85-BD5F-37E6CAB18EB0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12429,18 +12429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2DF77A9-BF5B-470F-BA1C-C56B695720FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FF51C3A-4470-4719-8D21-0F92A63DABFC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{511E6D7F-738E-4950-8AE3-2185540DF24E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3835F147-9C3C-4BD8-851D-CF5503C56138}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0B1D8B5-ADC5-453D-8723-9EA77202F6A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BAF9A4D-144F-4C21-A4A1-5D15FFCD5E9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B3FD7AF-CD6B-4493-9D6C-76F0C0904D17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CB3B9E5-116A-4E9D-A31F-B0BB35AEDAF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D146A403-6668-4E74-9748-804686276AD7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E483AECB-AA54-40BE-AD77-69EB074456CB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF02D70D-388D-4991-BD4B-1EF0937AEA53}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{200A6F62-CB19-4A69-97A0-6FD2BC13BB02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66271D70-61DD-4FB4-A15A-B4A0FD51C39F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16175088-7B5E-42CB-9F14-6D4C6B764667}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9E02C87-CD71-4ACF-85AD-E0D8FF94A321}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA803DD0-4D36-48AE-AF36-322DFAA27D0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEAAE929-2DA6-48A7-BBAD-62BFC79CDC98}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0BCAB04-4F4F-481B-81A6-55058038647E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C04640D-D241-4994-A368-B96D55B850B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DBD9DA7-C41D-438C-8A17-913DBC98CA85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20571955-F2AA-48EF-844F-85EB7A6052F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8CAD204E-E96F-409D-8F02-70225F2EF28A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{601FFAAF-F724-4D57-8C38-50952C8EB06E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F660FA29-3DCA-4B56-A274-8DF1D1F931B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12453,7 +12453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60562518-AA2A-4346-95C0-A1CEE53A4772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C076FF-1571-499B-8895-6E4AA3A402CB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13672,18 +13672,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D619102-0FAF-4516-98CC-6788BBB3C771}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C198F054-D78E-45ED-8ACA-6458E6E223C7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A970D66-0E86-4EFE-A48A-D67A3F24D87D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31B7D313-64D1-421B-952E-6D33C8B9541F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEC98E5B-AAB3-44E5-B88B-5986D45EF4CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEF8AFDD-5100-4680-ADEE-B47178D10A45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{668FC289-35D9-4AAF-8AA2-C31004B39B15}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0F9BE22-8420-4164-B6B3-C26B3E536624}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04019CA6-8313-4DB9-B826-23F57CD23466}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8180D28-1473-4318-A28B-249B1DE6C616}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84BBF4A6-7258-42A5-8BFE-22A3AEE93409}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22C717CE-9AA5-4050-9A29-84AC58A7E0FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{315E5EB8-653F-413B-933E-7A4CFD027BFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7157F0CC-238C-4E79-9A8F-40F952D52459}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F51DB242-33FC-41FA-A3C2-4F42B03A10A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BFA4D56-95A7-4E48-8A8B-3E0D0E1B0F63}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8D573BEA-ACEC-4B42-8E92-DA698935CF24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6DE343F-E221-4DEA-8296-8F951F798F8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C418703-4C88-46DF-84E3-32EEAEA331DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C21F59E1-A3F1-488B-A2BA-2D8CF4D11D54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A40DFC7-85C9-43B4-B9BE-48AC8B8305A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC7A5B65-1CF7-429C-A780-8808AD4E628B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F809778-76A5-4AE6-BE8C-066E0096E02E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7729848B-6803-4877-9AE5-34E67927D24E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13696,7 +13696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7FAFAA-4A3B-46B0-8112-F45A5BB8A817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC55F2-44A5-4391-9193-193642BB5E02}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14911,18 +14911,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD4EC1A9-F8A9-46AE-B31A-6A076FC66036}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B96D2E44-A865-445E-896D-13C7D41F4FAA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10C4F603-2EC0-473B-BBE2-10A9ACFE0672}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{33FB8917-CBA7-42A3-A48F-8B26F5F49DED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B02A052-102F-450F-9B03-6D167B5BEE55}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D6FA4A4-3F77-49C1-A024-E6D6C6E108F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBE16B56-86F0-4DBC-A9A3-3983003C82EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CF9C207-A684-4845-ACE1-5D7AE708CEEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E19DF00-736F-4F89-A2D8-100FBE8D6FA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00C6D20A-A207-47CC-BD90-59995E338E70}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16C17204-02CD-4E10-B439-1527590B04C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF017B29-769A-4184-A0DC-0C8823310E7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6FF1630-CD2D-4484-BDF6-C8548DD10036}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{409E153E-5067-4461-991A-ADB05B6D7E97}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{21CDD55E-9DEE-4339-8395-B2D3068B2B72}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB976FE6-EE14-42CC-A52C-D7C9A68C3FDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1924FA27-2D02-491B-AAA7-496D89411FE2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8413AE05-6BCB-4730-B6BF-10795D7C1C0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86A3DF28-A887-4E7C-AAB7-BA3CA0E80F76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C642418-C8FF-4160-93D2-CFE348AB7551}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{901A14DC-A2F5-48CF-9C34-B3072AE1AF50}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9167EBB4-D30B-4FE5-AAED-9660904241C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E70DF40B-82DC-4297-8337-12E79E91ED7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFB79678-BB05-4F69-9E56-9F267F4D107E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14935,7 +14935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919EEFB5-E8B8-4202-8C4F-1C9B6451EDDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551DA1EA-6639-4F02-A6E8-6B144420E3E9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16146,18 +16146,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{210145CD-BA3F-4162-8437-F3DDBBBCB737}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A40BC2C9-65C6-4B65-BB7F-8FB40641830E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8418A266-DBB9-46AB-8820-C47689943022}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB771688-69F8-4883-AC81-10D01C1DA8B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E75A54D-83C6-4AEF-87FC-F609285C9D4C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EF4E544-74E2-48C8-B40B-F2417B54E449}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07E4C987-5F45-4D5F-A28B-8DF489AC0CA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CD067F4-4271-4E22-A46B-0D193A098FC4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5953DCBB-739B-4E41-9F06-B6A1427C6B8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9085DBA8-83F4-419D-B779-52B980AF67F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C7CF50C-1ABF-4113-A8AD-7F58EB19A3DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B484F703-7CEB-4465-82E9-CC59DFDCDB6D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16393F7E-B792-4460-88DF-45D2AFD10A75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{058D6C1B-D62C-4180-B7E2-F09375552E0D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE5C4E66-2122-4704-812B-3D25B43DE690}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89070921-9709-4900-9BC6-EDF5754FD3D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEA6C13D-146A-49B6-8DE0-91F5301FBE08}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D046A365-44BA-4F2C-BB22-D8A17BFF2897}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A340668-CABD-4A97-9E91-FD59E0982F49}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{045E7D8C-266F-49EE-813E-BB27A207F377}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E5AAE5F-B385-4C59-9143-FD74768CE624}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BED390FA-B0E6-414A-83B8-ADB896E07B4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C082E40-CDA9-4B04-8042-039A98D5B6E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C00FC7E4-68A7-4D8F-9CC3-46395E7D54A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
